--- a/BackTest/2019-10-29 BackTest LBA.xlsx
+++ b/BackTest/2019-10-29 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>389893.1705</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>389893.1705</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>374663.1705</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>374663.1705</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>334809.2541</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>356690.3359</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>349190.3359</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>286678.1309</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>245582.6884</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>245582.6884</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>245582.6884</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>245582.6884</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>252059.0667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +972,19 @@
         <v>259544.526</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1013,19 @@
         <v>259544.526</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1054,19 @@
         <v>257376.4942</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1095,19 @@
         <v>291486.4942</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1136,19 @@
         <v>291486.4942</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1177,19 @@
         <v>291486.4942</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1218,19 @@
         <v>291486.4942</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1259,19 @@
         <v>291486.4942</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1300,19 @@
         <v>291486.4942</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1341,19 @@
         <v>290986.4942</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1382,19 @@
         <v>290919.8276</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1423,19 @@
         <v>290919.8276</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1464,19 @@
         <v>290919.8276</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1505,19 @@
         <v>290187.5044</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1546,19 @@
         <v>290187.5044</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1587,19 @@
         <v>292483.5044</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1628,19 @@
         <v>292483.5044</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1669,19 @@
         <v>292483.5044</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1710,19 @@
         <v>292483.5044</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1751,19 @@
         <v>297483.5044</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1792,19 @@
         <v>296208.2</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1833,19 @@
         <v>296208.2</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1874,19 @@
         <v>295553.4733</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1915,19 @@
         <v>295553.4733</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1956,19 @@
         <v>252923.2375</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1997,19 @@
         <v>252923.2375</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +2038,19 @@
         <v>252923.2375</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2079,19 @@
         <v>252923.2375</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2120,19 @@
         <v>265861.4201999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2161,19 @@
         <v>265861.4201999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2202,19 @@
         <v>265861.4201999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2243,19 @@
         <v>265861.4201999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2284,19 @@
         <v>265861.4201999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2325,19 @@
         <v>265861.4201999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2366,19 @@
         <v>260861.4190999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2407,19 @@
         <v>260861.4190999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2448,19 @@
         <v>233261.4190999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2489,19 @@
         <v>245013.7560999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>16</v>
+      </c>
+      <c r="J52" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2530,19 @@
         <v>243651.0768</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2571,19 @@
         <v>251827.4679</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2612,19 @@
         <v>251827.4679</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2653,19 @@
         <v>198613.8084</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2694,19 @@
         <v>198613.8084</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2735,19 @@
         <v>198613.8084</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,15 +2776,19 @@
         <v>198613.8084</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>16.1</v>
       </c>
       <c r="J59" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+        <v>16.6</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,17 +2817,17 @@
         <v>198613.8084</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>16.1</v>
       </c>
       <c r="J60" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2410,17 +2858,17 @@
         <v>198613.8084</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>16.1</v>
       </c>
       <c r="J61" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2451,17 +2899,17 @@
         <v>129951.0552999999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>16.1</v>
       </c>
       <c r="J62" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2492,13 +2940,13 @@
         <v>129951.0552999999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>15.9</v>
       </c>
       <c r="J63" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2533,13 +2981,13 @@
         <v>134186.2243999999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>15.9</v>
       </c>
       <c r="J64" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2574,13 +3022,13 @@
         <v>129853.4145</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>16</v>
       </c>
       <c r="J65" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2615,13 +3063,13 @@
         <v>127853.4145</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>15.9</v>
       </c>
       <c r="J66" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2656,13 +3104,13 @@
         <v>127853.4145</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>15.8</v>
       </c>
       <c r="J67" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2697,13 +3145,13 @@
         <v>223750.6245</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>15.8</v>
       </c>
       <c r="J68" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2738,13 +3186,13 @@
         <v>223750.6245</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>16.1</v>
       </c>
       <c r="J69" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2779,13 +3227,13 @@
         <v>291616.6245</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>16.1</v>
       </c>
       <c r="J70" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2820,13 +3268,13 @@
         <v>336216.6245</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>16.3</v>
       </c>
       <c r="J71" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2861,13 +3309,13 @@
         <v>333993.4443</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>16.4</v>
       </c>
       <c r="J72" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2902,13 +3350,13 @@
         <v>334662.4443</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>16.3</v>
       </c>
       <c r="J73" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2943,13 +3391,13 @@
         <v>334662.4443</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>16.4</v>
       </c>
       <c r="J74" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2984,13 +3432,13 @@
         <v>334662.4443</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>16.4</v>
       </c>
       <c r="J75" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3025,13 +3473,13 @@
         <v>358062.4443</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>16.4</v>
       </c>
       <c r="J76" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3066,13 +3514,13 @@
         <v>323852.4443</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>16.5</v>
       </c>
       <c r="J77" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3107,13 +3555,13 @@
         <v>323852.4443</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>16.4</v>
       </c>
       <c r="J78" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3148,13 +3596,13 @@
         <v>323852.4443</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>16.4</v>
       </c>
       <c r="J79" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3189,13 +3637,13 @@
         <v>323852.4443</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>16.4</v>
       </c>
       <c r="J80" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3230,11 +3678,13 @@
         <v>323852.4443</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>16.4</v>
+      </c>
       <c r="J81" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3269,11 +3719,13 @@
         <v>323852.4443</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>16.4</v>
+      </c>
       <c r="J82" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3308,11 +3760,13 @@
         <v>323852.4443</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>16.4</v>
+      </c>
       <c r="J83" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3347,11 +3801,13 @@
         <v>323852.4443</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>16.4</v>
+      </c>
       <c r="J84" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3386,11 +3842,13 @@
         <v>283446.8808</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>16.4</v>
+      </c>
       <c r="J85" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3425,11 +3883,13 @@
         <v>283446.8808</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J86" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3464,11 +3924,13 @@
         <v>283446.8808</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J87" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3503,11 +3965,13 @@
         <v>283446.8808</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J88" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3542,11 +4006,13 @@
         <v>283446.8808</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J89" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3581,11 +4047,13 @@
         <v>283446.8808</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J90" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3620,11 +4088,13 @@
         <v>283446.8808</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J91" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3659,11 +4129,13 @@
         <v>517769.2682</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J92" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3698,11 +4170,13 @@
         <v>517769.2682</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J93" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3737,11 +4211,13 @@
         <v>532769.2682</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J94" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3776,11 +4252,13 @@
         <v>572769.2682</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>16.7</v>
+      </c>
       <c r="J95" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3819,7 +4297,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3858,7 +4336,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3897,7 +4375,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3936,7 +4414,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3975,7 +4453,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4014,7 +4492,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4053,7 +4531,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4092,7 +4570,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4131,7 +4609,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4170,7 +4648,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4209,7 +4687,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4248,7 +4726,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4287,7 +4765,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4326,7 +4804,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4365,7 +4843,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4404,7 +4882,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4443,7 +4921,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4482,7 +4960,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4521,7 +4999,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4556,11 +5034,11 @@
         <v>7132296.261936657</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4599,7 +5077,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4638,7 +5116,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4677,7 +5155,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4716,7 +5194,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4755,7 +5233,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4794,7 +5272,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4833,7 +5311,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4872,7 +5350,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4911,7 +5389,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4950,7 +5428,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4989,7 +5467,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5024,11 +5502,11 @@
         <v>7746473.873087271</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5067,7 +5545,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5106,7 +5584,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5145,7 +5623,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5180,11 +5658,11 @@
         <v>7562124.215876592</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5219,11 +5697,11 @@
         <v>7466742.822076593</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5258,11 +5736,11 @@
         <v>7466742.822076593</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5297,21 +5775,23 @@
         <v>7372615.626976592</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>1.181746987951807</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1.01219512195122</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5336,17 +5816,11 @@
         <v>7372615.626976592</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5378,14 +5852,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5414,17 +5882,11 @@
         <v>7440550.938976592</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5453,17 +5915,11 @@
         <v>8183281.660587272</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5492,17 +5948,11 @@
         <v>8128832.856787272</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5531,17 +5981,11 @@
         <v>7645104.583687272</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5570,17 +6014,11 @@
         <v>7571128.210987272</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5609,17 +6047,11 @@
         <v>6574585.877787272</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5648,17 +6080,11 @@
         <v>6446781.227087271</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5687,17 +6113,11 @@
         <v>6461717.664787271</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5726,17 +6146,11 @@
         <v>6162123.177029377</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5765,17 +6179,11 @@
         <v>5570636.727329377</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5804,17 +6212,11 @@
         <v>6041935.561329377</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5843,17 +6245,11 @@
         <v>6067256.721029377</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5882,17 +6278,11 @@
         <v>6131763.863929377</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5921,17 +6311,11 @@
         <v>6052429.375529377</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5960,17 +6344,11 @@
         <v>6088855.591129377</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5999,17 +6377,11 @@
         <v>6199493.368729376</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6038,17 +6410,11 @@
         <v>5994292.728629376</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6077,17 +6443,11 @@
         <v>5994292.728629376</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6116,17 +6476,11 @@
         <v>5711357.735429375</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6155,17 +6509,11 @@
         <v>5483590.115329375</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6194,17 +6542,11 @@
         <v>5483590.115329375</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6233,17 +6575,11 @@
         <v>5180021.628929376</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6272,17 +6608,11 @@
         <v>5180021.628929376</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6311,17 +6641,11 @@
         <v>5242253.550829376</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6350,17 +6674,11 @@
         <v>5132263.017729376</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6389,17 +6707,11 @@
         <v>5352806.214529376</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6428,17 +6740,11 @@
         <v>5334788.208429377</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6467,17 +6773,11 @@
         <v>4904244.756829376</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6506,17 +6806,11 @@
         <v>4904483.880329376</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6545,17 +6839,11 @@
         <v>4909316.716329376</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6584,17 +6872,11 @@
         <v>4909316.716329376</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6626,14 +6908,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6665,14 +6941,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6704,14 +6974,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6743,14 +7007,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6782,14 +7040,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6821,14 +7073,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6860,14 +7106,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6899,14 +7139,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6938,14 +7172,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6977,14 +7205,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7016,14 +7238,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7055,14 +7271,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7094,14 +7304,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7133,14 +7337,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7172,14 +7370,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7211,14 +7403,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7250,14 +7436,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7289,14 +7469,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7328,14 +7502,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7367,14 +7535,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7406,14 +7568,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7445,14 +7601,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7484,14 +7634,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7523,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7562,14 +7700,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7601,14 +7733,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7640,14 +7766,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7679,14 +7799,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7718,14 +7832,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7757,14 +7865,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7793,23 +7895,15 @@
         <v>4360975.512397118</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
-        <v>1.162701863354037</v>
-      </c>
-      <c r="M198" t="n">
-        <v>1.0375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7834,7 +7928,7 @@
         <v>3953307.073297118</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7867,7 +7961,7 @@
         <v>3848112.527397118</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7900,7 +7994,7 @@
         <v>3872131.445097118</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7933,7 +8027,7 @@
         <v>4015215.587297118</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7966,7 +8060,7 @@
         <v>4015215.587297118</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8131,7 +8225,7 @@
         <v>3878925.260997118</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8164,7 +8258,7 @@
         <v>3878925.260997118</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8197,7 +8291,7 @@
         <v>3955099.608697118</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8296,7 +8390,7 @@
         <v>3967429.100897118</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8329,7 +8423,7 @@
         <v>3967429.100897118</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8428,7 +8522,7 @@
         <v>3699812.154697118</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -9583,7 +9677,7 @@
         <v>3560193.992122532</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9616,7 +9710,7 @@
         <v>3510349.182022532</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9649,7 +9743,7 @@
         <v>3547818.278722532</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9682,7 +9776,7 @@
         <v>3547818.278722532</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9715,7 +9809,7 @@
         <v>3896648.660622532</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9748,7 +9842,7 @@
         <v>3846112.586222532</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9781,7 +9875,7 @@
         <v>3846112.586222532</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9814,7 +9908,7 @@
         <v>4145372.305422532</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9847,7 +9941,7 @@
         <v>3927666.558622533</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9880,7 +9974,7 @@
         <v>3827810.635422532</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9913,7 +10007,7 @@
         <v>3827810.635422532</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9946,7 +10040,7 @@
         <v>3827810.635422532</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10012,7 +10106,7 @@
         <v>3892190.354522532</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10111,7 +10205,7 @@
         <v>3845157.700122532</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10144,7 +10238,7 @@
         <v>3843013.821822532</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10276,7 +10370,7 @@
         <v>3891536.097222533</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10342,7 +10436,7 @@
         <v>3881536.097222533</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10375,7 +10469,7 @@
         <v>3881536.097222533</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10408,7 +10502,7 @@
         <v>3786034.497022532</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10441,7 +10535,7 @@
         <v>3786034.497022532</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10474,7 +10568,7 @@
         <v>3786034.497022532</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -12388,7 +12482,7 @@
         <v>3492612.700722533</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -17569,7 +17663,7 @@
         <v>3370866.460235418</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17602,7 +17696,7 @@
         <v>3157562.099935418</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17635,7 +17729,7 @@
         <v>3002030.168935418</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17668,7 +17762,7 @@
         <v>3118688.046635418</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17701,7 +17795,7 @@
         <v>3415285.316035418</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17734,7 +17828,7 @@
         <v>3781262.791406552</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17767,7 +17861,7 @@
         <v>3568769.314606552</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17800,7 +17894,7 @@
         <v>3568769.314606552</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17833,7 +17927,7 @@
         <v>3568769.314606552</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17866,7 +17960,7 @@
         <v>3688591.229606553</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17899,7 +17993,7 @@
         <v>3930025.463406553</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18031,7 +18125,7 @@
         <v>4555451.745806552</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18064,7 +18158,7 @@
         <v>4860553.892406552</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18097,7 +18191,7 @@
         <v>4455879.855706552</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18130,7 +18224,7 @@
         <v>4608532.311506552</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18163,7 +18257,7 @@
         <v>5140078.636506552</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18724,7 +18818,7 @@
         <v>3533032.983396324</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18823,7 +18917,7 @@
         <v>3739635.207096324</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18856,7 +18950,7 @@
         <v>3705590.234896324</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18999,6 +19093,6 @@
       <c r="M537" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest LBA.xlsx
+++ b/BackTest/2019-10-29 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>389893.1705</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>389893.1705</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,1618 +517,1318 @@
         <v>374663.1705</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33470.2875</v>
+      </c>
+      <c r="G5" t="n">
+        <v>374663.1705</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>39853.9164</v>
+      </c>
+      <c r="G6" t="n">
+        <v>334809.2541</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C7" t="n">
         <v>16.6</v>
       </c>
-      <c r="J4" t="n">
+      <c r="D7" t="n">
         <v>16.6</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="E7" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21881.0818</v>
+      </c>
+      <c r="G7" t="n">
+        <v>356690.3359</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G8" t="n">
+        <v>349190.3359</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>62512.205</v>
+      </c>
+      <c r="G9" t="n">
+        <v>286678.1309</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>41095.4425</v>
+      </c>
+      <c r="G10" t="n">
+        <v>245582.6884</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6830</v>
+      </c>
+      <c r="G11" t="n">
+        <v>245582.6884</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8270.227999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>245582.6884</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>17168.228</v>
+      </c>
+      <c r="G13" t="n">
+        <v>245582.6884</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6476.3783</v>
+      </c>
+      <c r="G14" t="n">
+        <v>252059.0667</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7485.4593</v>
+      </c>
+      <c r="G15" t="n">
+        <v>259544.526</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>132968.6954</v>
+      </c>
+      <c r="G16" t="n">
+        <v>259544.526</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2168.0318</v>
+      </c>
+      <c r="G17" t="n">
+        <v>257376.4942</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>34110</v>
+      </c>
+      <c r="G18" t="n">
+        <v>291486.4942</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>550</v>
+      </c>
+      <c r="G19" t="n">
+        <v>291486.4942</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>750</v>
+      </c>
+      <c r="G20" t="n">
+        <v>291486.4942</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1630</v>
+      </c>
+      <c r="G21" t="n">
+        <v>291486.4942</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2320</v>
+      </c>
+      <c r="G22" t="n">
+        <v>291486.4942</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>291486.4942</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>500</v>
+      </c>
+      <c r="G24" t="n">
+        <v>290986.4942</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>66.6666</v>
+      </c>
+      <c r="G25" t="n">
+        <v>290919.8276</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>250</v>
+      </c>
+      <c r="G26" t="n">
+        <v>290919.8276</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>300</v>
+      </c>
+      <c r="G27" t="n">
+        <v>290919.8276</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>732.3232</v>
+      </c>
+      <c r="G28" t="n">
+        <v>290187.5044</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5683.6768</v>
+      </c>
+      <c r="G29" t="n">
+        <v>290187.5044</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2296</v>
+      </c>
+      <c r="G30" t="n">
+        <v>292483.5044</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>292483.5044</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>292483.5044</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>292483.5044</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>297483.5044</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C35" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1275.3044</v>
+      </c>
+      <c r="G35" t="n">
+        <v>296208.2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>480.0455</v>
+      </c>
+      <c r="G36" t="n">
+        <v>296208.2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>654.7267000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>295553.4733</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G38" t="n">
+        <v>295553.4733</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>42630.2358</v>
+      </c>
+      <c r="G39" t="n">
+        <v>252923.2375</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4357.0581</v>
+      </c>
+      <c r="G40" t="n">
+        <v>252923.2375</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8684.414000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>252923.2375</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>252923.2375</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33470.2875</v>
-      </c>
-      <c r="G5" t="n">
-        <v>374663.1705</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C43" t="n">
         <v>16.3</v>
       </c>
-      <c r="D6" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D43" t="n">
         <v>16.3</v>
       </c>
-      <c r="F6" t="n">
-        <v>39853.9164</v>
-      </c>
-      <c r="G6" t="n">
-        <v>334809.2541</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="E43" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>12938.1827</v>
+      </c>
+      <c r="G43" t="n">
+        <v>265861.4201999999</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>21881.0818</v>
-      </c>
-      <c r="G7" t="n">
-        <v>356690.3359</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G8" t="n">
-        <v>349190.3359</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>62512.205</v>
-      </c>
-      <c r="G9" t="n">
-        <v>286678.1309</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>41095.4425</v>
-      </c>
-      <c r="G10" t="n">
-        <v>245582.6884</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6830</v>
-      </c>
-      <c r="G11" t="n">
-        <v>245582.6884</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8270.227999999999</v>
-      </c>
-      <c r="G12" t="n">
-        <v>245582.6884</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>17168.228</v>
-      </c>
-      <c r="G13" t="n">
-        <v>245582.6884</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6476.3783</v>
-      </c>
-      <c r="G14" t="n">
-        <v>252059.0667</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7485.4593</v>
-      </c>
-      <c r="G15" t="n">
-        <v>259544.526</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>132968.6954</v>
-      </c>
-      <c r="G16" t="n">
-        <v>259544.526</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2168.0318</v>
-      </c>
-      <c r="G17" t="n">
-        <v>257376.4942</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>34110</v>
-      </c>
-      <c r="G18" t="n">
-        <v>291486.4942</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>550</v>
-      </c>
-      <c r="G19" t="n">
-        <v>291486.4942</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>750</v>
-      </c>
-      <c r="G20" t="n">
-        <v>291486.4942</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1630</v>
-      </c>
-      <c r="G21" t="n">
-        <v>291486.4942</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2320</v>
-      </c>
-      <c r="G22" t="n">
-        <v>291486.4942</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G23" t="n">
-        <v>291486.4942</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C24" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D24" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E24" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>500</v>
-      </c>
-      <c r="G24" t="n">
-        <v>290986.4942</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C25" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D25" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E25" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>66.6666</v>
-      </c>
-      <c r="G25" t="n">
-        <v>290919.8276</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C26" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D26" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E26" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F26" t="n">
-        <v>250</v>
-      </c>
-      <c r="G26" t="n">
-        <v>290919.8276</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C27" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D27" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E27" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F27" t="n">
-        <v>300</v>
-      </c>
-      <c r="G27" t="n">
-        <v>290919.8276</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C28" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D28" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E28" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>732.3232</v>
-      </c>
-      <c r="G28" t="n">
-        <v>290187.5044</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C29" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D29" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E29" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>5683.6768</v>
-      </c>
-      <c r="G29" t="n">
-        <v>290187.5044</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C30" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D30" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E30" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2296</v>
-      </c>
-      <c r="G30" t="n">
-        <v>292483.5044</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C31" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D31" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E31" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F31" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G31" t="n">
-        <v>292483.5044</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C32" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D32" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E32" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F32" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G32" t="n">
-        <v>292483.5044</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C33" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E33" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G33" t="n">
-        <v>292483.5044</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C34" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E34" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F34" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>297483.5044</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C35" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D35" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E35" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1275.3044</v>
-      </c>
-      <c r="G35" t="n">
-        <v>296208.2</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C36" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D36" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E36" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>480.0455</v>
-      </c>
-      <c r="G36" t="n">
-        <v>296208.2</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="J36" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C37" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D37" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E37" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F37" t="n">
-        <v>654.7267000000001</v>
-      </c>
-      <c r="G37" t="n">
-        <v>295553.4733</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D38" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E38" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F38" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G38" t="n">
-        <v>295553.4733</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C39" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D39" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E39" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F39" t="n">
-        <v>42630.2358</v>
-      </c>
-      <c r="G39" t="n">
-        <v>252923.2375</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J39" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C40" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D40" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E40" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F40" t="n">
-        <v>4357.0581</v>
-      </c>
-      <c r="G40" t="n">
-        <v>252923.2375</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J40" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C41" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D41" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E41" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F41" t="n">
-        <v>8684.414000000001</v>
-      </c>
-      <c r="G41" t="n">
-        <v>252923.2375</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D42" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E42" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F42" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G42" t="n">
-        <v>252923.2375</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C43" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D43" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E43" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F43" t="n">
-        <v>12938.1827</v>
-      </c>
-      <c r="G43" t="n">
-        <v>265861.4201999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2167,7 +1863,7 @@
         <v>16.3</v>
       </c>
       <c r="J44" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2208,7 +1904,7 @@
         <v>16.3</v>
       </c>
       <c r="J45" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2249,7 +1945,7 @@
         <v>16.3</v>
       </c>
       <c r="J46" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2284,13 +1980,11 @@
         <v>265861.4201999999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2325,13 +2019,11 @@
         <v>265861.4201999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>16.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2366,13 +2058,11 @@
         <v>260861.4190999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>16.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2413,7 +2103,7 @@
         <v>16.1</v>
       </c>
       <c r="J50" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2454,7 +2144,7 @@
         <v>16.1</v>
       </c>
       <c r="J51" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2495,7 +2185,7 @@
         <v>16</v>
       </c>
       <c r="J52" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2536,7 +2226,7 @@
         <v>16.2</v>
       </c>
       <c r="J53" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2577,7 +2267,7 @@
         <v>16.1</v>
       </c>
       <c r="J54" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2618,7 +2308,7 @@
         <v>16.2</v>
       </c>
       <c r="J55" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2659,7 +2349,7 @@
         <v>16.2</v>
       </c>
       <c r="J56" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2700,7 +2390,7 @@
         <v>16.1</v>
       </c>
       <c r="J57" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2741,7 +2431,7 @@
         <v>16.1</v>
       </c>
       <c r="J58" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2782,7 +2472,7 @@
         <v>16.1</v>
       </c>
       <c r="J59" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2823,7 +2513,7 @@
         <v>16.1</v>
       </c>
       <c r="J60" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2864,7 +2554,7 @@
         <v>16.1</v>
       </c>
       <c r="J61" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2905,7 +2595,7 @@
         <v>16.1</v>
       </c>
       <c r="J62" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2946,7 +2636,7 @@
         <v>15.9</v>
       </c>
       <c r="J63" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2987,7 +2677,7 @@
         <v>15.9</v>
       </c>
       <c r="J64" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3028,7 +2718,7 @@
         <v>16</v>
       </c>
       <c r="J65" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3069,7 +2759,7 @@
         <v>15.9</v>
       </c>
       <c r="J66" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3110,7 +2800,7 @@
         <v>15.8</v>
       </c>
       <c r="J67" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3151,7 +2841,7 @@
         <v>15.8</v>
       </c>
       <c r="J68" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3192,7 +2882,7 @@
         <v>16.1</v>
       </c>
       <c r="J69" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3233,7 +2923,7 @@
         <v>16.1</v>
       </c>
       <c r="J70" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3274,7 +2964,7 @@
         <v>16.3</v>
       </c>
       <c r="J71" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3315,7 +3005,7 @@
         <v>16.4</v>
       </c>
       <c r="J72" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3356,7 +3046,7 @@
         <v>16.3</v>
       </c>
       <c r="J73" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3391,13 +3081,11 @@
         <v>334662.4443</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3432,13 +3120,11 @@
         <v>334662.4443</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3473,13 +3159,11 @@
         <v>358062.4443</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3514,13 +3198,11 @@
         <v>323852.4443</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3555,13 +3237,11 @@
         <v>323852.4443</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3596,13 +3276,11 @@
         <v>323852.4443</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3637,13 +3315,11 @@
         <v>323852.4443</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3678,13 +3354,11 @@
         <v>323852.4443</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3719,13 +3393,11 @@
         <v>323852.4443</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3760,13 +3432,11 @@
         <v>323852.4443</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3801,13 +3471,11 @@
         <v>323852.4443</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3842,13 +3510,11 @@
         <v>283446.8808</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3883,13 +3549,11 @@
         <v>283446.8808</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>16.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3924,13 +3588,11 @@
         <v>283446.8808</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>16.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3965,13 +3627,11 @@
         <v>283446.8808</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -4006,13 +3666,11 @@
         <v>283446.8808</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>16.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4047,13 +3705,11 @@
         <v>283446.8808</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>16.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -4088,13 +3744,11 @@
         <v>283446.8808</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>16.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4129,13 +3783,11 @@
         <v>517769.2682</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>16.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4170,13 +3822,11 @@
         <v>517769.2682</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4211,13 +3861,11 @@
         <v>532769.2682</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4252,13 +3900,11 @@
         <v>572769.2682</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4297,7 +3943,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4336,7 +3982,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4375,7 +4021,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4414,7 +4060,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4453,7 +4099,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4492,7 +4138,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4531,7 +4177,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4570,7 +4216,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4609,7 +4255,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4644,21 +4290,23 @@
         <v>4314746.911937013</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>1.174012345679013</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.024691358024691</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4683,17 +4331,11 @@
         <v>3942765.532437013</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4722,17 +4364,11 @@
         <v>4540814.132613048</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4761,17 +4397,11 @@
         <v>4867643.123013048</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4800,17 +4430,11 @@
         <v>4666965.651513048</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4839,17 +4463,11 @@
         <v>5062024.462313048</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4878,17 +4496,11 @@
         <v>5643860.982715089</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4920,14 +4532,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4959,14 +4565,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4998,14 +4598,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -5037,14 +4631,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5076,14 +4664,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5115,14 +4697,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5154,14 +4730,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5193,14 +4763,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5232,14 +4796,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5271,14 +4829,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5310,14 +4862,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5349,14 +4895,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5388,14 +4928,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5427,14 +4961,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5466,14 +4994,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5505,14 +5027,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5544,14 +5060,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5583,14 +5093,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5622,14 +5126,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5661,14 +5159,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5700,14 +5192,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5739,14 +5225,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5775,23 +5255,15 @@
         <v>7372615.626976592</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
-        <v>1.181746987951807</v>
-      </c>
-      <c r="M134" t="n">
-        <v>1.01219512195122</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5816,7 +5288,7 @@
         <v>7372615.626976592</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5849,7 +5321,7 @@
         <v>7397599.249776592</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5981,7 +5453,7 @@
         <v>7645104.583687272</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -6014,7 +5486,7 @@
         <v>7571128.210987272</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -6047,7 +5519,7 @@
         <v>6574585.877787272</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -6080,7 +5552,7 @@
         <v>6446781.227087271</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -6113,7 +5585,7 @@
         <v>6461717.664787271</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6311,7 +5783,7 @@
         <v>6052429.375529377</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6344,7 +5816,7 @@
         <v>6088855.591129377</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6377,7 +5849,7 @@
         <v>6199493.368729376</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6410,7 +5882,7 @@
         <v>5994292.728629376</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6476,7 +5948,7 @@
         <v>5711357.735429375</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6509,7 +5981,7 @@
         <v>5483590.115329375</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6542,7 +6014,7 @@
         <v>5483590.115329375</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6575,7 +6047,7 @@
         <v>5180021.628929376</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6608,7 +6080,7 @@
         <v>5180021.628929376</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6641,7 +6113,7 @@
         <v>5242253.550829376</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6674,7 +6146,7 @@
         <v>5132263.017729376</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6707,7 +6179,7 @@
         <v>5352806.214529376</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6740,7 +6212,7 @@
         <v>5334788.208429377</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6773,7 +6245,7 @@
         <v>4904244.756829376</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6806,7 +6278,7 @@
         <v>4904483.880329376</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6839,7 +6311,7 @@
         <v>4909316.716329376</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6872,7 +6344,7 @@
         <v>4909316.716329376</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -19093,6 +18565,6 @@
       <c r="M537" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest LBA.xlsx
+++ b/BackTest/2019-10-29 BackTest LBA.xlsx
@@ -880,11 +880,17 @@
         <v>259544.526</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +919,17 @@
         <v>259544.526</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +958,17 @@
         <v>257376.4942</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +997,17 @@
         <v>291486.4942</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16.2</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1040,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1077,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1114,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1151,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1188,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1225,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1262,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1299,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1336,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1369,17 @@
         <v>290187.5044</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1408,17 @@
         <v>290187.5044</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>16.2</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1447,17 @@
         <v>292483.5044</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>16.2</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1486,17 @@
         <v>292483.5044</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1525,17 @@
         <v>292483.5044</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1564,17 @@
         <v>292483.5044</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1603,17 @@
         <v>297483.5044</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1642,17 @@
         <v>296208.2</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1681,17 @@
         <v>296208.2</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>16.4</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1720,17 @@
         <v>295553.4733</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>16.4</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1759,17 @@
         <v>295553.4733</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1798,17 @@
         <v>252923.2375</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1837,17 @@
         <v>252923.2375</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>16.2</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1743,10 +1881,12 @@
       <c r="I41" t="n">
         <v>16.2</v>
       </c>
-      <c r="J41" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1780,12 +1920,10 @@
       <c r="I42" t="n">
         <v>16.2</v>
       </c>
-      <c r="J42" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1821,12 +1959,10 @@
       <c r="I43" t="n">
         <v>16.2</v>
       </c>
-      <c r="J43" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1862,9 +1998,7 @@
       <c r="I44" t="n">
         <v>16.3</v>
       </c>
-      <c r="J44" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1903,9 +2037,7 @@
       <c r="I45" t="n">
         <v>16.3</v>
       </c>
-      <c r="J45" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1944,9 +2076,7 @@
       <c r="I46" t="n">
         <v>16.3</v>
       </c>
-      <c r="J46" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1980,12 +2110,12 @@
         <v>265861.4201999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>16.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2019,12 +2149,12 @@
         <v>265861.4201999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>16.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2058,12 +2188,12 @@
         <v>260861.4190999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>16.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2102,9 +2232,7 @@
       <c r="I50" t="n">
         <v>16.1</v>
       </c>
-      <c r="J50" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2143,9 +2271,7 @@
       <c r="I51" t="n">
         <v>16.1</v>
       </c>
-      <c r="J51" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2184,9 +2310,7 @@
       <c r="I52" t="n">
         <v>16</v>
       </c>
-      <c r="J52" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2225,9 +2349,7 @@
       <c r="I53" t="n">
         <v>16.2</v>
       </c>
-      <c r="J53" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2266,9 +2388,7 @@
       <c r="I54" t="n">
         <v>16.1</v>
       </c>
-      <c r="J54" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2307,9 +2427,7 @@
       <c r="I55" t="n">
         <v>16.2</v>
       </c>
-      <c r="J55" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2348,9 +2466,7 @@
       <c r="I56" t="n">
         <v>16.2</v>
       </c>
-      <c r="J56" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2389,9 +2505,7 @@
       <c r="I57" t="n">
         <v>16.1</v>
       </c>
-      <c r="J57" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2430,9 +2544,7 @@
       <c r="I58" t="n">
         <v>16.1</v>
       </c>
-      <c r="J58" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2471,9 +2583,7 @@
       <c r="I59" t="n">
         <v>16.1</v>
       </c>
-      <c r="J59" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2512,9 +2622,7 @@
       <c r="I60" t="n">
         <v>16.1</v>
       </c>
-      <c r="J60" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2553,9 +2661,7 @@
       <c r="I61" t="n">
         <v>16.1</v>
       </c>
-      <c r="J61" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2594,9 +2700,7 @@
       <c r="I62" t="n">
         <v>16.1</v>
       </c>
-      <c r="J62" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2635,9 +2739,7 @@
       <c r="I63" t="n">
         <v>15.9</v>
       </c>
-      <c r="J63" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2676,9 +2778,7 @@
       <c r="I64" t="n">
         <v>15.9</v>
       </c>
-      <c r="J64" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2717,9 +2817,7 @@
       <c r="I65" t="n">
         <v>16</v>
       </c>
-      <c r="J65" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2758,9 +2856,7 @@
       <c r="I66" t="n">
         <v>15.9</v>
       </c>
-      <c r="J66" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2799,9 +2895,7 @@
       <c r="I67" t="n">
         <v>15.8</v>
       </c>
-      <c r="J67" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2840,9 +2934,7 @@
       <c r="I68" t="n">
         <v>15.8</v>
       </c>
-      <c r="J68" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2881,9 +2973,7 @@
       <c r="I69" t="n">
         <v>16.1</v>
       </c>
-      <c r="J69" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2922,9 +3012,7 @@
       <c r="I70" t="n">
         <v>16.1</v>
       </c>
-      <c r="J70" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2963,9 +3051,7 @@
       <c r="I71" t="n">
         <v>16.3</v>
       </c>
-      <c r="J71" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3004,9 +3090,7 @@
       <c r="I72" t="n">
         <v>16.4</v>
       </c>
-      <c r="J72" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3045,9 +3129,7 @@
       <c r="I73" t="n">
         <v>16.3</v>
       </c>
-      <c r="J73" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3081,12 +3163,12 @@
         <v>334662.4443</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>16.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3120,12 +3202,12 @@
         <v>334662.4443</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>16.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3162,9 +3244,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3201,9 +3281,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3240,9 +3318,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3279,9 +3355,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3318,9 +3392,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3357,9 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3396,9 +3466,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3435,9 +3503,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3474,9 +3540,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3513,9 +3577,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3552,9 +3614,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3591,9 +3651,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3630,9 +3688,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3669,9 +3725,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3708,9 +3762,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3747,9 +3799,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3786,9 +3836,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3825,9 +3873,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3864,9 +3910,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3903,9 +3947,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3942,9 +3984,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3981,9 +4021,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4020,9 +4058,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4059,9 +4095,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,9 +4132,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4137,9 +4169,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4176,9 +4206,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4215,9 +4243,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4254,9 +4280,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4290,649 +4314,719 @@
         <v>4314746.911937013</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C106" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="D106" t="n">
+        <v>19</v>
+      </c>
+      <c r="E106" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F106" t="n">
+        <v>371981.3795</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3942765.532437013</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C107" t="n">
+        <v>19</v>
+      </c>
+      <c r="D107" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E107" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F107" t="n">
+        <v>598048.600176034</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4540814.132613048</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D108" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E108" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>326828.9904</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4867643.123013048</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>200677.4715</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4666965.651513048</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C110" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F110" t="n">
+        <v>395058.8108</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5062024.462313048</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C111" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D111" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E111" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>581836.5204020408</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5643860.982715089</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C112" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="E112" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>727221.2371</v>
+      </c>
+      <c r="G112" t="n">
+        <v>6371082.219815088</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C113" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D113" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>20</v>
+      </c>
+      <c r="F113" t="n">
+        <v>968655.5386254902</v>
+      </c>
+      <c r="G113" t="n">
+        <v>7339737.758440578</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>110624.5945745098</v>
+      </c>
+      <c r="G114" t="n">
+        <v>7339737.758440578</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>207441.4965039216</v>
+      </c>
+      <c r="G115" t="n">
+        <v>7132296.261936657</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C116" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D116" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F116" t="n">
+        <v>32930.9342</v>
+      </c>
+      <c r="G116" t="n">
+        <v>7132296.261936657</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C117" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D117" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F117" t="n">
+        <v>222957.4332</v>
+      </c>
+      <c r="G117" t="n">
+        <v>7132296.261936657</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C118" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4879.9845</v>
+      </c>
+      <c r="G118" t="n">
+        <v>7137176.246436657</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>8777.4409</v>
+      </c>
+      <c r="G119" t="n">
+        <v>7137176.246436657</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>20</v>
+      </c>
+      <c r="C120" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>20</v>
+      </c>
+      <c r="E120" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>38291.3507</v>
+      </c>
+      <c r="G120" t="n">
+        <v>7098884.895736657</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D121" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>58704.2981</v>
+      </c>
+      <c r="G121" t="n">
+        <v>7157589.193836657</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C122" t="n">
+        <v>20</v>
+      </c>
+      <c r="D122" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>149207.9139985366</v>
+      </c>
+      <c r="G122" t="n">
+        <v>7306797.107835194</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>102029.1449975419</v>
+      </c>
+      <c r="G123" t="n">
+        <v>7408826.252832736</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C124" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>22</v>
+      </c>
+      <c r="E124" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>630449.4304545355</v>
+      </c>
+      <c r="G124" t="n">
+        <v>8039275.683287271</v>
+      </c>
+      <c r="H124" t="n">
         <v>2</v>
       </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K105" t="inlineStr">
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1.174012345679013</v>
-      </c>
-      <c r="M105" t="n">
-        <v>1.024691358024691</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="C106" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="D106" t="n">
-        <v>19</v>
-      </c>
-      <c r="E106" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="F106" t="n">
-        <v>371981.3795</v>
-      </c>
-      <c r="G106" t="n">
-        <v>3942765.532437013</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="C107" t="n">
-        <v>19</v>
-      </c>
-      <c r="D107" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="E107" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F107" t="n">
-        <v>598048.600176034</v>
-      </c>
-      <c r="G107" t="n">
-        <v>4540814.132613048</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C108" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D108" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="E108" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F108" t="n">
-        <v>326828.9904</v>
-      </c>
-      <c r="G108" t="n">
-        <v>4867643.123013048</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C109" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="D109" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E109" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F109" t="n">
-        <v>200677.4715</v>
-      </c>
-      <c r="G109" t="n">
-        <v>4666965.651513048</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="C110" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="D110" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E110" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F110" t="n">
-        <v>395058.8108</v>
-      </c>
-      <c r="G110" t="n">
-        <v>5062024.462313048</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="C111" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="D111" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="E111" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F111" t="n">
-        <v>581836.5204020408</v>
-      </c>
-      <c r="G111" t="n">
-        <v>5643860.982715089</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="C112" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="D112" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="E112" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F112" t="n">
-        <v>727221.2371</v>
-      </c>
-      <c r="G112" t="n">
-        <v>6371082.219815088</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C113" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D113" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E113" t="n">
-        <v>20</v>
-      </c>
-      <c r="F113" t="n">
-        <v>968655.5386254902</v>
-      </c>
-      <c r="G113" t="n">
-        <v>7339737.758440578</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C114" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D114" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E114" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F114" t="n">
-        <v>110624.5945745098</v>
-      </c>
-      <c r="G114" t="n">
-        <v>7339737.758440578</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C115" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="D115" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F115" t="n">
-        <v>207441.4965039216</v>
-      </c>
-      <c r="G115" t="n">
-        <v>7132296.261936657</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="C116" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="D116" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="E116" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="F116" t="n">
-        <v>32930.9342</v>
-      </c>
-      <c r="G116" t="n">
-        <v>7132296.261936657</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="C117" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="D117" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="E117" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="F117" t="n">
-        <v>222957.4332</v>
-      </c>
-      <c r="G117" t="n">
-        <v>7132296.261936657</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="C118" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="D118" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="E118" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="F118" t="n">
-        <v>4879.9845</v>
-      </c>
-      <c r="G118" t="n">
-        <v>7137176.246436657</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="C119" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="D119" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="E119" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="F119" t="n">
-        <v>8777.4409</v>
-      </c>
-      <c r="G119" t="n">
-        <v>7137176.246436657</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>20</v>
-      </c>
-      <c r="C120" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D120" t="n">
-        <v>20</v>
-      </c>
-      <c r="E120" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F120" t="n">
-        <v>38291.3507</v>
-      </c>
-      <c r="G120" t="n">
-        <v>7098884.895736657</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="C121" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="D121" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="E121" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F121" t="n">
-        <v>58704.2981</v>
-      </c>
-      <c r="G121" t="n">
-        <v>7157589.193836657</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="C122" t="n">
-        <v>20</v>
-      </c>
-      <c r="D122" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="F122" t="n">
-        <v>149207.9139985366</v>
-      </c>
-      <c r="G122" t="n">
-        <v>7306797.107835194</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="C123" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E123" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F123" t="n">
-        <v>102029.1449975419</v>
-      </c>
-      <c r="G123" t="n">
-        <v>7408826.252832736</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C124" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>22</v>
-      </c>
-      <c r="E124" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>630449.4304545355</v>
-      </c>
-      <c r="G124" t="n">
-        <v>8039275.683287271</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
@@ -4958,7 +5052,7 @@
         <v>7796089.627987271</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4991,7 +5085,7 @@
         <v>7722783.272887271</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5024,7 +5118,7 @@
         <v>7746473.873087271</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5057,7 +5151,7 @@
         <v>7668057.599387271</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5090,7 +5184,7 @@
         <v>7766449.869576592</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5123,7 +5217,7 @@
         <v>7626724.361676592</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5156,7 +5250,7 @@
         <v>7562124.215876592</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5189,7 +5283,7 @@
         <v>7466742.822076593</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5222,7 +5316,7 @@
         <v>7466742.822076593</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5453,7 +5547,7 @@
         <v>7645104.583687272</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5486,7 +5580,7 @@
         <v>7571128.210987272</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5618,7 +5712,7 @@
         <v>6162123.177029377</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5651,7 +5745,7 @@
         <v>5570636.727329377</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5684,7 +5778,7 @@
         <v>6041935.561329377</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5717,7 +5811,7 @@
         <v>6067256.721029377</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5750,7 +5844,7 @@
         <v>6131763.863929377</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5915,7 +6009,7 @@
         <v>5994292.728629376</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
